--- a/imageCreationExcel/back/darkyobi/darkyobi_4.xlsx
+++ b/imageCreationExcel/back/darkyobi/darkyobi_4.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,30 +495,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5855645217229473</v>
+        <v>0.6166946362099046</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9971508585079747</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>14.11277081532417</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="H2" t="n">
-        <v>1.024050093561395</v>
+        <v>6.635989925528901</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_P_gamma0.59_brightness14.0_contrast1.0.jpg</t>
+          <t>1_I_gamma0.62_contrast1.0_brightness6.6.jpg</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,15 +537,15 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9893831342189444</v>
+        <v>1.185606414141401</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9858308042596291</v>
+        <v>1.006559647625656</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>13.70410443132139</v>
+        <v>31.56620653930478</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_3_contrast0.99_sharpness0.99_equalization14.0.jpg</t>
+          <t>2_E_contrast1.2_gamma1.0_equalization32.0.jpg</t>
         </is>
       </c>
     </row>
@@ -570,24 +570,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8644691822634486</v>
+        <v>0.2505884033024331</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.4172272013888805</v>
+        <v>26.7146672315625</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -595,14 +595,14 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.035211873677554</v>
+        <v>1.189845786025993</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_B_gamma0.86_sharpness0.42_contrast1.0.jpg</t>
+          <t>3_P_sharpness0.25_brightness27.0_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -612,39 +612,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7475299653575107</v>
+        <v>5.183830601611552</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>12.14112156471558</v>
+        <v>0.08802575811515823</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.050688663428459</v>
+        <v>1.000488566500496</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_I_sharpness0.75_brightness12.0_contrast1.1.jpg</t>
+          <t>4_7_brightness5.2_sharpness0.088_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,30 +663,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.1005571448823429</v>
+        <v>0.6973434553014669</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.620461211834326</v>
+        <v>1.196514297875554</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>13.19768566358693</v>
+        <v>0.7520228883853128</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_0_sharpness0.1_gamma0.62_equalization13.0.jpg</t>
+          <t>5_2_sharpness0.7_contrast1.2_gamma0.75.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.82149365183027</v>
+        <v>0.3929937563149483</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>23.60407176801612</v>
+        <v>0.9298927321771698</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.3576547434072394</v>
+        <v>0.9327979730122485</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_0_contrast0.82_brightness24.0_sharpness0.36.jpg</t>
+          <t>6_2_sharpness0.39_gamma0.93_contrast0.93.jpg</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -747,30 +747,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.00703183027823</v>
+        <v>1.073769963523625</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04580903915528</v>
+        <v>28.68929875414917</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>26.61508174787187</v>
+        <v>0.3520946121218461</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_1_contrast1.0_gamma1.0_equalization27.0.jpg</t>
+          <t>7_E_contrast1.1_brightness29.0_sharpness0.35.jpg</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -789,30 +789,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.1504751796715694</v>
+        <v>0.8938876936715029</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.108212382447375</v>
+        <v>0.7815530501434749</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.9695888532664882</v>
+        <v>30.39057049014033</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_8_sharpness0.15_contrast1.1_gamma0.97.jpg</t>
+          <t>8_0_sharpness0.89_gamma0.78_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -822,39 +822,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17.34689887910824</v>
+        <v>0.7979231458783596</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.071468879077033</v>
+        <v>0.3434980195782378</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.8638655571090672</v>
+        <v>1.08804466773309</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_C_brightness17.0_contrast1.1_gamma0.86.jpg</t>
+          <t>9_7_gamma0.8_sharpness0.34_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -864,24 +864,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8521654228966065</v>
+        <v>20.1817120618623</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>28.38976806312266</v>
+        <v>1.010018414535871</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,14 +889,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.6687351937210433</v>
+        <v>0.8806973462805003</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_3_contrast0.85_brightness28.0_gamma0.67.jpg</t>
+          <t>10_E_brightness20.0_contrast1.0_gamma0.88.jpg</t>
         </is>
       </c>
     </row>
@@ -906,39 +906,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.5928913226702968</v>
+        <v>0.8196524190201875</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>18.43304409810158</v>
+        <v>0.1324575192453517</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.9012361405658001</v>
+        <v>27.49851509460508</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_1_sharpness0.59_brightness18.0_contrast0.9.jpg</t>
+          <t>11_I_gamma0.82_sharpness0.13_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -948,39 +948,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.182383288364161</v>
+        <v>26.61624217724807</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.23494685165327</v>
+        <v>1.162520225810834</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.2684427218490619</v>
+        <v>0.8162417638738348</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_8_contrast1.2_brightness2.2_sharpness0.27.jpg</t>
+          <t>12_B_brightness27.0_contrast1.2_gamma0.82.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.6986710777417686</v>
+        <v>13.96015190814625</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9360837329033932</v>
+        <v>0.4550734202456299</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4.287824379996218</v>
+        <v>1.04837624834758</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_I_gamma0.7_contrast0.94_brightness4.3.jpg</t>
+          <t>13_B_brightness14.0_sharpness0.46_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,39 +1032,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.6818682386119912</v>
+        <v>0.8062927557728492</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.032643633517417</v>
+        <v>15.54769296367948</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.031481526771135</v>
+        <v>0.8836149925542658</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_T_sharpness0.68_gamma1.0_contrast1.0.jpg</t>
+          <t>14_3_contrast0.81_brightness16.0_gamma0.88.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.09660475494323362</v>
+        <v>1.150769053410788</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.113228642891844</v>
+        <v>8.935691006966405</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>30.73926997633599</v>
+        <v>0.1576542590419286</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_S_sharpness0.097_contrast1.1_equalization31.0.jpg</t>
+          <t>15_C_contrast1.2_brightness8.9_sharpness0.16.jpg</t>
         </is>
       </c>
     </row>
@@ -1125,15 +1125,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.4853825469826891</v>
+        <v>0.4793913311139477</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.5834795449862124</v>
+        <v>27.21880146265827</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1141,14 +1141,14 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1.085220952911223</v>
+        <v>1.08497374055004</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_P_sharpness0.49_gamma0.58_contrast1.1.jpg</t>
+          <t>16_P_sharpness0.48_brightness27.0_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,16 +1158,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.5286719281027216</v>
+        <v>0.9223290025692152</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.793112683575642</v>
+        <v>0.01574794404259827</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5.434402118370073</v>
+        <v>6.271256107708675</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_3_gamma0.53_sharpness0.79_equalization5.4.jpg</t>
+          <t>17_2_contrast0.92_sharpness0.016_equalization6.3.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1209,15 +1209,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.9329807467268523</v>
+        <v>0.9757919769614827</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.97487136524177</v>
+        <v>0.5165713289969396</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1225,14 +1225,14 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>20.71571265718869</v>
+        <v>20.51935228405102</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_T_contrast0.93_gamma0.97_equalization21.0.jpg</t>
+          <t>18_C_contrast0.98_sharpness0.52_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.8396826330412657</v>
+        <v>0.9600950596729466</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.179728160332164</v>
+        <v>0.9706880868364223</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>10.5339737533855</v>
+        <v>25.0465316158466</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_9_sharpness0.84_contrast1.2_brightness11.0.jpg</t>
+          <t>19_E_gamma0.96_sharpness0.97_equalization25.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1293,30 +1293,30 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.8330404528332623</v>
+        <v>0.8914860974850909</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.7652592688187303</v>
+        <v>0.9490597262610692</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.5235380861246451</v>
+        <v>10.37329397648343</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_9_contrast0.83_sharpness0.77_gamma0.52.jpg</t>
+          <t>20_9_contrast0.89_gamma0.95_equalization10.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,39 +1326,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9867673805945013</v>
+        <v>0.1663771975002852</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>24.54230172557546</v>
+        <v>0.9953134622132578</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.084327913845057</v>
+        <v>9.041421464974352</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_I_gamma0.99_brightness25.0_contrast1.1.jpg</t>
+          <t>21_T_sharpness0.17_gamma1.0_equalization9.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1377,30 +1377,30 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>7.495323926877538</v>
+        <v>14.08068836251563</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.1367366013889986</v>
+        <v>0.7768434041305512</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.5891705105928244</v>
+        <v>0.9407879816423758</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_9_brightness7.5_sharpness0.14_gamma0.59.jpg</t>
+          <t>22_9_brightness14.0_gamma0.78_contrast0.94.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,24 +1410,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.127146610473829</v>
+        <v>0.4808234328012848</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.057349122877935</v>
+        <v>1.179130707813956</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>21.24349140962443</v>
+        <v>22.14936443211072</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_1_contrast1.1_gamma1.1_brightness21.0.jpg</t>
+          <t>23_0_sharpness0.48_contrast1.2_brightness22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.197380397539798</v>
+        <v>0.8824618955231199</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>25.84794673241295</v>
+        <v>2.589133268464372</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1477,14 +1477,14 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1.008320064968452</v>
+        <v>0.8680497890964394</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_8_contrast1.2_brightness26.0_gamma1.0.jpg</t>
+          <t>24_T_contrast0.88_brightness2.6_gamma0.87.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.6141508821815034</v>
+        <v>0.8649838390088329</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1511,22 +1511,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.06171035820185111</v>
+        <v>0.546651309885571</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>25.54204878615334</v>
+        <v>5.786122733411597</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_C_gamma0.61_sharpness0.062_brightness26.0.jpg</t>
+          <t>25_P_gamma0.86_sharpness0.55_equalization5.8.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1545,30 +1545,30 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.1178398992376356</v>
+        <v>0.2137694780055306</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.829158373988943</v>
+        <v>19.76642358055293</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>29.3675077546577</v>
+        <v>1.164774877625445</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_P_sharpness0.12_contrast0.83_equalization29.0.jpg</t>
+          <t>26_I_sharpness0.21_brightness20.0_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.8863032315042204</v>
+        <v>0.6956196029462062</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.9648981024639099</v>
+        <v>0.9334930056389324</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.5763456816818429</v>
+        <v>31.59128425051836</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_0_contrast0.89_gamma0.96_sharpness0.58.jpg</t>
+          <t>27_P_gamma0.7_contrast0.93_equalization32.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>23.15728141878433</v>
+        <v>1.139793345672918</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.6949138683364403</v>
+        <v>1.092174400160355</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1.078967921675452</v>
+        <v>13.89963104903364</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_2_brightness23.0_sharpness0.69_contrast1.1.jpg</t>
+          <t>28_9_contrast1.1_gamma1.1_equalization14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,39 +1662,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.720594843790448</v>
+        <v>9.589502070755135</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.3493386978431009</v>
+        <v>0.8863674609161146</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>7.878096419074502</v>
+        <v>0.6225064505093898</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_0_gamma0.72_sharpness0.35_equalization7.9.jpg</t>
+          <t>29_2_brightness9.6_contrast0.89_gamma0.62.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1713,15 +1713,15 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.8794678870570409</v>
+        <v>0.6809628096512839</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.180395375327456</v>
+        <v>0.709927510702859</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>12.17887580189554</v>
+        <v>12.93545402268487</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_3_sharpness0.88_contrast1.2_equalization12.0.jpg</t>
+          <t>30_2_sharpness0.68_gamma0.71_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,39 +1746,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.7461034445262198</v>
+        <v>0.8271550275163164</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.036647617751153</v>
+        <v>0.5396060822492611</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>15.49651664617045</v>
+        <v>0.8623718612404294</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_9_gamma0.75_contrast1.0_equalization15.0.jpg</t>
+          <t>31_B_contrast0.83_gamma0.54_sharpness0.86.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,16 +1788,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.8637760132321547</v>
+        <v>18.14261534947913</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1805,22 +1805,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.8008391352621611</v>
+        <v>0.9298203352301148</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>25.62155300626541</v>
+        <v>0.6627474678406438</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_3_gamma0.86_contrast0.8_equalization26.0.jpg</t>
+          <t>32_7_brightness18.0_contrast0.93_gamma0.66.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,30 +1839,30 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.004524772463484</v>
+        <v>0.9064773337598342</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.801627426722565</v>
+        <v>0.09198887425263047</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1.102678640745674</v>
+        <v>8.706095622972972</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_3_gamma1.0_brightness4.8_contrast1.1.jpg</t>
+          <t>33_P_gamma0.91_sharpness0.092_equalization8.7.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,39 +1872,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.4200788393209574</v>
+        <v>1.009875071993807</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.056094456529171</v>
+        <v>0.5124344117166852</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>10.31300591703218</v>
+        <v>10.36302447479998</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_B_sharpness0.42_contrast1.1_brightness10.0.jpg</t>
+          <t>34_0_contrast1.0_gamma0.51_equalization10.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1919,11 +1919,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.4600722960331752</v>
+        <v>0.7501930322568535</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.013605860410956</v>
+        <v>1.130279723070714</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1939,14 +1939,14 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>21.4033747636089</v>
+        <v>24.31913556955388</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_0_sharpness0.46_contrast1.0_equalization21.0.jpg</t>
+          <t>35_0_gamma0.75_contrast1.1_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.6804629813830418</v>
+        <v>0.4287999746129006</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1973,22 +1973,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.9224457235024024</v>
+        <v>0.8848240394847234</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>19.93141747242606</v>
+        <v>1.04645483633883</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_E_sharpness0.68_contrast0.92_equalization20.0.jpg</t>
+          <t>36_0_sharpness0.43_contrast0.88_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.6959207373070035</v>
+        <v>1.104040812928584</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.702980434003152</v>
+        <v>8.593917494101737</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1.060970259634743</v>
+        <v>0.9586867333913186</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_1_gamma0.7_sharpness0.7_contrast1.1.jpg</t>
+          <t>37_T_contrast1.1_brightness8.6_sharpness0.96.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,16 +2040,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>27.9694846210423</v>
+        <v>0.6881316755347189</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2057,22 +2057,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.8656323381450463</v>
+        <v>0.6854577393581932</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.09456707739322834</v>
+        <v>1.080301014372521</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_P_brightness28.0_gamma0.87_sharpness0.095.jpg</t>
+          <t>38_1_sharpness0.69_gamma0.69_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,39 +2082,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.5614146654314961</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>8.487192226769999</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F40" t="n">
-        <v>0.7957054595700321</v>
+        <v>3.140818832112605</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1.042073627224401</v>
+        <v>0.7655553184685281</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_S_brightness8.5_gamma0.8_contrast1.0.jpg</t>
+          <t>39_1_gamma0.56_brightness3.1_sharpness0.77.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2133,30 +2133,30 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.092717876158767</v>
+        <v>0.8751763072308925</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.9728571795283357</v>
+        <v>1.146551384012368</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>17.81639302768905</v>
+        <v>10.03128180256012</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_8_gamma1.1_sharpness0.97_brightness18.0.jpg</t>
+          <t>40_E_gamma0.88_contrast1.1_equalization10.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,39 +2166,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.9365856942293548</v>
+        <v>0.6902979733006471</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.003309574343562</v>
+        <v>28.42873131117363</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>8.273359861365169</v>
+        <v>0.6635769018141568</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_2_gamma0.94_contrast1.0_equalization8.3.jpg</t>
+          <t>41_S_sharpness0.69_brightness28.0_gamma0.66.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19.40666215657832</v>
+        <v>0.8912781389977618</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.8918330407549004</v>
+        <v>1.195303997070651</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.8665395910895792</v>
+        <v>0.7690177016784496</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_I_brightness19.0_gamma0.89_contrast0.87.jpg</t>
+          <t>42_0_gamma0.89_contrast1.2_sharpness0.77.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,39 +2250,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.011955359193058</v>
+        <v>17.910010988882</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.7359634538812015</v>
+        <v>0.9993482040455831</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.6064589124021004</v>
+        <v>0.6133730551903146</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_C_contrast1.0_sharpness0.74_gamma0.61.jpg</t>
+          <t>43_B_brightness18.0_contrast1.0_sharpness0.61.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,39 +2292,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.4713407932987845</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>17.72159144701386</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F45" t="n">
-        <v>1.086089958477153</v>
+        <v>22.30499598500958</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.1787050198309341</v>
+        <v>0.7430129238132546</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_C_brightness18.0_gamma1.1_sharpness0.18.jpg</t>
+          <t>44_S_sharpness0.47_brightness22.0_gamma0.74.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.086991826964284</v>
+        <v>0.8176483521661024</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.5430632343117611</v>
+        <v>0.9539438113961385</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>14.00597301612342</v>
+        <v>4.215765697479544</v>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_3_contrast1.1_gamma0.54_equalization14.0.jpg</t>
+          <t>45_C_gamma0.82_contrast0.95_brightness4.2.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,16 +2376,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.8687306504895527</v>
+        <v>16.04109965298273</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2393,22 +2393,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.006125311734307</v>
+        <v>0.8741887315903548</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>13.8831241796811</v>
+        <v>1.002369382697137</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_1_gamma0.87_contrast1.0_equalization14.0.jpg</t>
+          <t>46_7_brightness16.0_contrast0.87_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,39 +2418,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.784746316110803</v>
+        <v>0.8460650814300325</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.05386267838021</v>
+        <v>18.43958471488807</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.975360335869351</v>
+        <v>0.3815958606211863</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_2_sharpness0.78_contrast1.1_gamma0.98.jpg</t>
+          <t>47_8_gamma0.85_brightness18.0_sharpness0.38.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,16 +2460,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.6126777846039</v>
+        <v>1.031643842425666</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2477,22 +2477,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>15.66039159688945</v>
+        <v>16.14142408442936</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.1881990905025416</v>
+        <v>0.6830289942727389</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_1_gamma0.61_brightness16.0_sharpness0.19.jpg</t>
+          <t>48_P_contrast1.0_brightness16.0_gamma0.68.jpg</t>
         </is>
       </c>
     </row>
